--- a/anms.xlsx
+++ b/anms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/sirifris_oslomet_no/Documents/Dokumenter/SSST_Norwegian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{AD2B7B3D-4678-4AD8-AA5D-EFF395742800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CCC70EC-2E7D-4010-822F-EAC3AEE3A274}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{AD2B7B3D-4678-4AD8-AA5D-EFF395742800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{727D96B2-BFDB-4D44-B381-11BEB89A0E18}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39B9ABCF-3F3B-4DD8-BD44-7F04A4CF70CD}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
-  <si>
-    <t>url</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>hemali.no</t>
   </si>
@@ -80,18 +77,12 @@
     <t>rights.no</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>theepochtimes.com</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
     <t>thegatewaypundit.com</t>
   </si>
   <si>
@@ -107,21 +98,6 @@
     <t>bitchute.com</t>
   </si>
   <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>de.rt.com</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>jungefreiheit.de</t>
-  </si>
-  <si>
-    <t>nachdenkseiten.de</t>
-  </si>
-  <si>
     <t>friatider.se</t>
   </si>
   <si>
@@ -167,9 +143,6 @@
     <t>rt.com</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>thecanary.co</t>
   </si>
   <si>
@@ -186,6 +159,15 @@
   </si>
   <si>
     <t>amren.com</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>domain</t>
   </si>
 </sst>
 </file>
@@ -240,15 +222,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{019DEE74-40CE-4C53-8A0E-193DF2BA8709}" name="Table1" displayName="Table1" ref="A1:B42" totalsRowShown="0">
-  <autoFilter ref="A1:B42" xr:uid="{019DEE74-40CE-4C53-8A0E-193DF2BA8709}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B38">
-    <sortCondition ref="B1:B38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{019DEE74-40CE-4C53-8A0E-193DF2BA8709}" name="Table1" displayName="Table1" ref="A1:B39" totalsRowShown="0">
+  <autoFilter ref="A1:B39" xr:uid="{019DEE74-40CE-4C53-8A0E-193DF2BA8709}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B39">
+    <sortCondition ref="B1:B39"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A5BB55E-F33F-4DE3-B684-A637CAF9E86D}" name="url"/>
-    <tableColumn id="2" xr3:uid="{24477512-A064-4B8D-B462-B63D67625803}" name="country"/>
+    <tableColumn id="1" xr3:uid="{3A5BB55E-F33F-4DE3-B684-A637CAF9E86D}" name="domain"/>
+    <tableColumn id="2" xr3:uid="{24477512-A064-4B8D-B462-B63D67625803}" name="language"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -571,348 +557,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C0BD6F-2D07-45AA-B89E-0E1B7F2BA286}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
         <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
